--- a/20012025/18.xlsx
+++ b/20012025/18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaRumi\PycharmProjects\ege\20012025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE1B3E9-3194-48F7-AD19-B8907EC69EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4009E1-C615-4D8B-904D-DB3121B3755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13788" yWindow="3168" windowWidth="18408" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -406,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>86</v>
       </c>
@@ -444,7 +444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>96</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>98</v>
       </c>
@@ -508,7 +508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>82</v>
       </c>
@@ -540,7 +540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -572,7 +572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21</v>
       </c>
@@ -604,7 +604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -636,7 +636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>39</v>
       </c>
@@ -700,7 +700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -732,385 +732,385 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ref="A13:A20" si="0">A14+A1</f>
         <v>511</v>
       </c>
       <c r="B13">
-        <f>MIN(B14,A13)+B1</f>
+        <f t="shared" ref="B13:B21" si="1">MIN(B14,A13)+B1</f>
         <v>459</v>
       </c>
       <c r="C13">
-        <f>MIN(C14,B13)+C1</f>
+        <f t="shared" ref="C13:C21" si="2">MIN(C14,B13)+C1</f>
         <v>466</v>
       </c>
       <c r="D13">
-        <f>MIN(D14,C13)+D1</f>
+        <f t="shared" ref="D13:D21" si="3">MIN(D14,C13)+D1</f>
         <v>457</v>
       </c>
       <c r="E13">
-        <f>MIN(E14,D13)+E1</f>
+        <f t="shared" ref="E13:E21" si="4">MIN(E14,D13)+E1</f>
         <v>548</v>
       </c>
       <c r="F13">
-        <f>MIN(F14,E13)+F1</f>
+        <f t="shared" ref="F13:F21" si="5">MIN(F14,E13)+F1</f>
         <v>644</v>
       </c>
       <c r="G13">
-        <f>MIN(G14,F13)+G1</f>
+        <f t="shared" ref="G13:G21" si="6">MIN(G14,F13)+G1</f>
         <v>628</v>
       </c>
       <c r="H13">
-        <f>MIN(H14,G13)+H1</f>
+        <f t="shared" ref="H13:H21" si="7">MIN(H14,G13)+H1</f>
         <v>535</v>
       </c>
       <c r="I13">
-        <f>MIN(I14,H13)+I1</f>
+        <f t="shared" ref="I13:I21" si="8">MIN(I14,H13)+I1</f>
         <v>548</v>
       </c>
       <c r="J13">
-        <f>MIN(J14,I13)+J1</f>
+        <f t="shared" ref="J13:J21" si="9">MIN(J14,I13)+J1</f>
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="B14">
-        <f>MIN(B15,A14)+B2</f>
+        <f t="shared" si="1"/>
         <v>419</v>
       </c>
       <c r="C14">
-        <f>MIN(C15,B14)+C2</f>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
       <c r="D14">
-        <f>MIN(D15,C14)+D2</f>
+        <f t="shared" si="3"/>
         <v>444</v>
       </c>
       <c r="E14">
-        <f>MIN(E15,D14)+E2</f>
+        <f t="shared" si="4"/>
         <v>502</v>
       </c>
       <c r="F14">
-        <f>MIN(F15,E14)+F2</f>
+        <f t="shared" si="5"/>
         <v>582</v>
       </c>
       <c r="G14">
-        <f>MIN(G15,F14)+G2</f>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="H14">
-        <f>MIN(H15,G14)+H2</f>
+        <f t="shared" si="7"/>
         <v>493</v>
       </c>
       <c r="I14">
-        <f>MIN(I15,H14)+I2</f>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="J14">
-        <f>MIN(J15,I14)+J2</f>
+        <f t="shared" si="9"/>
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="B15">
-        <f>MIN(B16,A15)+B3</f>
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
       <c r="C15">
-        <f>MIN(C16,B15)+C3</f>
+        <f t="shared" si="2"/>
         <v>467</v>
       </c>
       <c r="D15">
-        <f>MIN(D16,C15)+D3</f>
+        <f t="shared" si="3"/>
         <v>439</v>
       </c>
       <c r="E15">
-        <f>MIN(E16,D15)+E3</f>
+        <f t="shared" si="4"/>
         <v>475</v>
       </c>
       <c r="F15">
-        <f>MIN(F16,E15)+F3</f>
+        <f t="shared" si="5"/>
         <v>554</v>
       </c>
       <c r="G15">
-        <f>MIN(G16,F15)+G3</f>
+        <f t="shared" si="6"/>
         <v>477</v>
       </c>
       <c r="H15">
-        <f>MIN(H16,G15)+H3</f>
+        <f t="shared" si="7"/>
         <v>461</v>
       </c>
       <c r="I15">
-        <f>MIN(I16,H15)+I3</f>
+        <f t="shared" si="8"/>
         <v>444</v>
       </c>
       <c r="J15">
-        <f>MIN(J16,I15)+J3</f>
+        <f t="shared" si="9"/>
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="B16">
-        <f>MIN(B17,A16)+B4</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="C16">
-        <f>MIN(C17,B16)+C4</f>
+        <f t="shared" si="2"/>
         <v>378</v>
       </c>
       <c r="D16">
-        <f>MIN(D17,C16)+D4</f>
+        <f t="shared" si="3"/>
         <v>379</v>
       </c>
       <c r="E16">
-        <f>MIN(E17,D16)+E4</f>
+        <f t="shared" si="4"/>
         <v>443</v>
       </c>
       <c r="F16">
-        <f>MIN(F17,E16)+F4</f>
+        <f t="shared" si="5"/>
         <v>459</v>
       </c>
       <c r="G16">
-        <f>MIN(G17,F16)+G4</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="H16">
-        <f>MIN(H17,G16)+H4</f>
+        <f t="shared" si="7"/>
         <v>439</v>
       </c>
       <c r="I16">
-        <f>MIN(I17,H16)+I4</f>
+        <f t="shared" si="8"/>
         <v>414</v>
       </c>
       <c r="J16">
-        <f>MIN(J17,I16)+J4</f>
+        <f t="shared" si="9"/>
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="B17">
-        <f>MIN(B18,A17)+B5</f>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="C17">
-        <f>MIN(C18,B17)+C5</f>
+        <f t="shared" si="2"/>
         <v>281</v>
       </c>
       <c r="D17">
-        <f>MIN(D18,C17)+D5</f>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="E17">
-        <f>MIN(E18,D17)+E5</f>
+        <f t="shared" si="4"/>
         <v>351</v>
       </c>
       <c r="F17">
-        <f>MIN(F18,E17)+F5</f>
+        <f t="shared" si="5"/>
         <v>407</v>
       </c>
       <c r="G17">
-        <f>MIN(G18,F17)+G5</f>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="H17">
-        <f>MIN(H18,G17)+H5</f>
+        <f t="shared" si="7"/>
         <v>381</v>
       </c>
       <c r="I17">
-        <f>MIN(I18,H17)+I5</f>
+        <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="J17">
-        <f>MIN(J18,I17)+J5</f>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="B18">
-        <f>MIN(B19,A18)+B6</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="C18">
-        <f>MIN(C19,B18)+C6</f>
+        <f t="shared" si="2"/>
         <v>233</v>
       </c>
       <c r="D18">
-        <f>MIN(D19,C18)+D6</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="E18">
-        <f>MIN(E19,D18)+E6</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="F18">
-        <f>MIN(F19,E18)+F6</f>
+        <f t="shared" si="5"/>
         <v>321</v>
       </c>
       <c r="G18">
-        <f>MIN(G19,F18)+G6</f>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="H18">
-        <f>MIN(H19,G18)+H6</f>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="I18">
-        <f>MIN(I19,H18)+I6</f>
+        <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="J18">
-        <f>MIN(J19,I18)+J6</f>
+        <f t="shared" si="9"/>
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B19">
-        <f>MIN(B20,A19)+B7</f>
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="C19">
-        <f>MIN(C20,B19)+C7</f>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="D19">
-        <f>MIN(D20,C19)+D7</f>
+        <f t="shared" si="3"/>
         <v>316</v>
       </c>
       <c r="E19">
-        <f>MIN(E20,D19)+E7</f>
+        <f t="shared" si="4"/>
         <v>408</v>
       </c>
       <c r="F19">
-        <f>MIN(F20,E19)+F7</f>
+        <f t="shared" si="5"/>
         <v>387</v>
       </c>
       <c r="G19">
-        <f>MIN(G20,F19)+G7</f>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="H19">
-        <f>MIN(H20,G19)+H7</f>
+        <f t="shared" si="7"/>
         <v>359</v>
       </c>
       <c r="I19">
-        <f>MIN(I20,H19)+I7</f>
+        <f t="shared" si="8"/>
         <v>398</v>
       </c>
       <c r="J19">
-        <f>MIN(J20,I19)+J7</f>
+        <f t="shared" si="9"/>
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="B20">
-        <f>MIN(B21,A20)+B8</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C20">
-        <f>MIN(C21,B20)+C8</f>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
       <c r="D20">
-        <f>MIN(D21,C20)+D8</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="E20">
-        <f>MIN(E21,D20)+E8</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="F20">
-        <f>MIN(F21,E20)+F8</f>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="G20">
-        <f>MIN(G21,F20)+G8</f>
+        <f t="shared" si="6"/>
         <v>295</v>
       </c>
       <c r="H20">
-        <f>MIN(H21,G20)+H8</f>
+        <f t="shared" si="7"/>
         <v>319</v>
       </c>
       <c r="I20">
-        <f>MIN(I21,H20)+I8</f>
+        <f t="shared" si="8"/>
         <v>391</v>
       </c>
       <c r="J20">
-        <f>MIN(J21,I20)+J8</f>
+        <f t="shared" si="9"/>
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>A22+A9</f>
         <v>56</v>
       </c>
       <c r="B21">
-        <f>MIN(B22,A21)+B9</f>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="C21">
-        <f>MIN(C22,B21)+C9</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="D21">
-        <f>MIN(D22,C21)+D9</f>
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
       <c r="E21">
-        <f>MIN(E22,D21)+E9</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="F21">
-        <f>MIN(F22,E21)+F9</f>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="G21">
-        <f>MIN(G22,F21)+G9</f>
+        <f t="shared" si="6"/>
         <v>284</v>
       </c>
       <c r="H21">
-        <f>MIN(H22,G21)+H9</f>
+        <f t="shared" si="7"/>
         <v>341</v>
       </c>
       <c r="I21">
-        <f>MIN(I22,H21)+I9</f>
+        <f t="shared" si="8"/>
         <v>427</v>
       </c>
       <c r="J21">
-        <f>MIN(J22,I21)+J9</f>
+        <f t="shared" si="9"/>
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1119,35 +1119,35 @@
         <v>86</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:J22" si="1">B22+C10</f>
+        <f t="shared" ref="C22:J22" si="10">B22+C10</f>
         <v>115</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>302</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>402</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>471</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>565</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1174,7 +1174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
